--- a/イベント更新・削除_結合テスト.xlsx
+++ b/イベント更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A60A116-E8D0-4CF1-A19C-AE95EE0FE5EF}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{252B8D6A-5B4B-45B0-95ED-FA6523BAB49A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6 (2)" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="184">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1495,29 +1495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当ブログの「タイトル」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当ブログの「内容」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント削除</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -1583,32 +1560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当イベントの「開始日」情報が表示されているか</t>
-    <rPh sb="8" eb="11">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベントの「終了日」情報が表示されているか</t>
-    <rPh sb="8" eb="11">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当イベントの「内容」情報が表示されているか</t>
     <rPh sb="8" eb="10">
       <t>ナイヨウ</t>
@@ -1645,32 +1596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当イベントの「開始日」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベントの「終了日」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当イベントの「内容」の表示</t>
     <rPh sb="0" eb="2">
       <t>ガイトウ</t>
@@ -1869,50 +1794,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「終了日」が変更された場合、「終了日が変更されました。」の表示</t>
-    <rPh sb="1" eb="4">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「開始日」が変更された場合、「開始日が変更されました。」の表示</t>
-    <rPh sb="1" eb="4">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「写真」が変更された場合、「写真が変更されました。」の表示</t>
     <rPh sb="1" eb="3">
       <t>シャシン</t>
@@ -2022,20 +1903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「開始日が変更されました。」</t>
-    <rPh sb="1" eb="4">
-      <t>カイシビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「終了日が変更されました。」</t>
-    <rPh sb="1" eb="4">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.ログインしない状態で、event-update-complete.phpをURLに直打ちする</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -2065,50 +1932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.開始日を変更し、イベント更新画面の「更新」ボタンを押す</t>
-    <rPh sb="2" eb="5">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.終了日を変更し、イベント更新画面の「更新」ボタンを押す</t>
-    <rPh sb="2" eb="5">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.内容を変更し、イベント更新画面の「更新」ボタンを押す</t>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
@@ -2210,26 +2033,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「開始日」が更新されているか</t>
-    <rPh sb="1" eb="4">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「終了日」が更新されているか</t>
-    <rPh sb="1" eb="4">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「写真」が更新されているか</t>
     <rPh sb="1" eb="3">
       <t>シャシン</t>
@@ -2240,26 +2043,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新された「開始日」</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カイシビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新された「終了日」</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新された「写真」</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -2283,45 +2066,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当ブログの「開始日」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当ブログの「終了日」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当ブログの「写真」が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.イベント情報画面の「…」ボタンを押し、「削除」を押す</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
@@ -2574,6 +2318,326 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日時」情報が表示されているか</t>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「終了日時」情報が表示されているか</t>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日時」が変更された場合、「開始日時が変更されました。」の表示</t>
+    <rPh sb="1" eb="3">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日時」が変更された場合、「終了日時が変更されました。」の表示</t>
+    <rPh sb="1" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.開始日時を変更し、イベント更新画面の「更新」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.終了日時を変更し、イベント更新画面の「更新」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日時が変更されました。」</t>
+    <rPh sb="1" eb="3">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日時が変更されました。」</t>
+    <rPh sb="1" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「終了日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「開始日時」が更新されているか</t>
+    <rPh sb="1" eb="3">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「終了日時」が更新されているか</t>
+    <rPh sb="1" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新された「開始日時」</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新された「終了日時」</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「タイトル」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日時」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「終了日時」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「内容」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「写真」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ホスト名を変更する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2676,7 +2740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2698,16 +2762,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2715,6 +2773,100 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="112">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4105,100 +4257,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4216,41 +4274,41 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4A8E27EE-C0B6-45E3-B0CA-DDEB97AF08AF}" name="テーブル21424" displayName="テーブル21424" ref="A7:I21" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{10B4CF67-52A7-47E6-91D4-516FE717BC71}" name="項目番号" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{EF2256EA-07E1-4924-A0F6-0F3A4E34D3A8}" name="大項目" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{96E7F6BF-4AE0-40A6-A69B-BE002BF4230C}" name="列3" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{C4DE2FE9-620E-412E-9AAA-710E5230AA50}" name="確認内容" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{B074DC21-2DB9-4A80-8CC0-31314140E8C6}" name="操作手順" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{032EBCCE-704E-4D88-A280-B17AFE558085}" name="期待値" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{2297C3D4-6267-4FED-80E8-31FE960DBE05}" name="実施日" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{8F545E39-B7E2-4832-BA36-3199ACD1DE27}" name="実施結果" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{B9AF9EF6-0558-4C0F-B1D3-4A993771BEC9}" name="備考" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{10B4CF67-52A7-47E6-91D4-516FE717BC71}" name="項目番号" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{EF2256EA-07E1-4924-A0F6-0F3A4E34D3A8}" name="大項目" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{96E7F6BF-4AE0-40A6-A69B-BE002BF4230C}" name="列3" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{C4DE2FE9-620E-412E-9AAA-710E5230AA50}" name="確認内容" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{B074DC21-2DB9-4A80-8CC0-31314140E8C6}" name="操作手順" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{032EBCCE-704E-4D88-A280-B17AFE558085}" name="期待値" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{2297C3D4-6267-4FED-80E8-31FE960DBE05}" name="実施日" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{8F545E39-B7E2-4832-BA36-3199ACD1DE27}" name="実施結果" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{B9AF9EF6-0558-4C0F-B1D3-4A993771BEC9}" name="備考" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -4265,17 +4323,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{9175428A-4F3E-4094-B5C9-44630959C699}" name="テーブル31525" displayName="テーブル31525" ref="A22:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{9175428A-4F3E-4094-B5C9-44630959C699}" name="テーブル31525" displayName="テーブル31525" ref="A22:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C8D169BA-FD98-4A9A-9137-605BF401B2A4}" name="項目番号" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{E0125B3D-4072-414D-B29D-36F889DE9741}" name="大項目" headerRowDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{3153E28B-6F10-4223-870E-41C1A004AF69}" name="列3" headerRowDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{D0980941-408E-4264-8F97-949C8B20C805}" name="確認内容" headerRowDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{F559EE42-10ED-4A5F-9224-F44B60F881ED}" name="操作手順" headerRowDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{EA9E24C5-D1D7-4F7E-8F87-6EE224951B53}" name="期待値" headerRowDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{711F8A9E-9F00-4D6E-9604-5D469C72A5AA}" name="実施日" headerRowDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EA7BF003-7F2A-4B15-ACEE-AF2D9C2F88DA}" name="実施結果" headerRowDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{CEBF68D2-FF39-4E8D-AD0F-D18C2E5ECACE}" name="備考" headerRowDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{C8D169BA-FD98-4A9A-9137-605BF401B2A4}" name="項目番号" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{E0125B3D-4072-414D-B29D-36F889DE9741}" name="大項目" headerRowDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{3153E28B-6F10-4223-870E-41C1A004AF69}" name="列3" headerRowDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{D0980941-408E-4264-8F97-949C8B20C805}" name="確認内容" headerRowDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{F559EE42-10ED-4A5F-9224-F44B60F881ED}" name="操作手順" headerRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{EA9E24C5-D1D7-4F7E-8F87-6EE224951B53}" name="期待値" headerRowDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{711F8A9E-9F00-4D6E-9604-5D469C72A5AA}" name="実施日" headerRowDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{EA7BF003-7F2A-4B15-ACEE-AF2D9C2F88DA}" name="実施結果" headerRowDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{CEBF68D2-FF39-4E8D-AD0F-D18C2E5ECACE}" name="備考" headerRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4284,49 +4342,49 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{54A540D5-6D77-48A3-A4AF-D1682684AF11}" name="テーブル2141626" displayName="テーブル2141626" ref="A7:I19" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7F50084-C8C5-479F-BCDA-C083108A738E}" name="項目番号" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{706D1204-A650-48F0-85D6-83C0846EE539}" name="大項目" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{23FDA52B-0FF2-44F5-BF1E-69FAF21E5532}" name="列3" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{DC417E64-6843-402F-87C3-E714E48C61A0}" name="確認内容" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{C74EC79F-0859-4617-9B93-90CFF8EA850A}" name="操作手順" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{E19BFE6A-FA2F-4076-B207-1BB8B576E786}" name="期待値" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{F2D8FE51-5F8F-4144-9EC3-C90AA384AC2A}" name="実施日" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{4D5DEFFA-3111-4D6F-8839-EF7B28D6CC59}" name="実施結果" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{FD95F74D-4FD6-4C28-B54E-576D67A69B53}" name="備考" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{D7F50084-C8C5-479F-BCDA-C083108A738E}" name="項目番号" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{706D1204-A650-48F0-85D6-83C0846EE539}" name="大項目" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{23FDA52B-0FF2-44F5-BF1E-69FAF21E5532}" name="列3" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{DC417E64-6843-402F-87C3-E714E48C61A0}" name="確認内容" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{C74EC79F-0859-4617-9B93-90CFF8EA850A}" name="操作手順" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{E19BFE6A-FA2F-4076-B207-1BB8B576E786}" name="期待値" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{F2D8FE51-5F8F-4144-9EC3-C90AA384AC2A}" name="実施日" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{4D5DEFFA-3111-4D6F-8839-EF7B28D6CC59}" name="実施結果" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{FD95F74D-4FD6-4C28-B54E-576D67A69B53}" name="備考" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A26604DD-41E9-4356-8ACC-E4B74BF3B1CC}" name="テーブル3151727" displayName="テーブル3151727" ref="A20:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A26604DD-41E9-4356-8ACC-E4B74BF3B1CC}" name="テーブル3151727" displayName="テーブル3151727" ref="A20:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="82">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9745263D-FD35-4FEA-826E-59DD8B2A163F}" name="項目番号" headerRowDxfId="68" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{98D47FD1-E376-452E-9CFF-E78E03D849BC}" name="大項目" headerRowDxfId="66" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{540CF92E-0703-4213-8197-1EDE4F0B711B}" name="列3" headerRowDxfId="64" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{AFC129DF-E7D8-47BA-AEAC-3DA3BF4A3869}" name="確認内容" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{762BA848-F521-4E06-B7F2-35FC3DB97BB4}" name="操作手順" headerRowDxfId="60" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{1591D937-D52C-4E32-8B7F-E6ECFD7BE17B}" name="期待値" headerRowDxfId="58" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{6FD1DCD9-D9B5-455B-B38D-DECA68F2E66F}" name="実施日" headerRowDxfId="56" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{EAB3A95F-A670-48B6-85EC-231A741FE1FA}" name="実施結果" headerRowDxfId="54" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{DF016391-227B-4771-A06D-B0624ADE855F}" name="備考" headerRowDxfId="52" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{9745263D-FD35-4FEA-826E-59DD8B2A163F}" name="項目番号" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{98D47FD1-E376-452E-9CFF-E78E03D849BC}" name="大項目" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{540CF92E-0703-4213-8197-1EDE4F0B711B}" name="列3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{AFC129DF-E7D8-47BA-AEAC-3DA3BF4A3869}" name="確認内容" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{762BA848-F521-4E06-B7F2-35FC3DB97BB4}" name="操作手順" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{1591D937-D52C-4E32-8B7F-E6ECFD7BE17B}" name="期待値" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{6FD1DCD9-D9B5-455B-B38D-DECA68F2E66F}" name="実施日" headerRowDxfId="69" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{EAB3A95F-A670-48B6-85EC-231A741FE1FA}" name="実施結果" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{DF016391-227B-4771-A06D-B0624ADE855F}" name="備考" headerRowDxfId="65" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7821895E-7CBE-4A87-838E-77E0282FDF88}" name="テーブル391910" displayName="テーブル391910" ref="A6:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{7821895E-7CBE-4A87-838E-77E0282FDF88}" name="テーブル391910" displayName="テーブル391910" ref="A6:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="63">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{18839E38-9061-4AD1-811B-865F19B59F0B}" name="項目番号" headerRowDxfId="49" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{135C2B15-ED71-4E38-AC07-35B43A5EABC7}" name="大項目" headerRowDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{F7652A53-A1B8-4A73-A6DF-322324A8F3D0}" name="列3" headerRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{5FF2E917-E280-4BAA-A6AB-EFDD05C109D3}" name="確認内容" headerRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{B778511E-299A-4E60-AAD9-F9994C35D0DF}" name="操作手順" headerRowDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{742FD30F-BC09-4C1E-B0E9-702A84695AF4}" name="期待値" headerRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{39FE9F83-CBC2-4CB1-8917-69FAAEB1343D}" name="実施日" headerRowDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{772E27F4-AB2B-4CE7-AA27-18EEF520B561}" name="実施結果" headerRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{E65CA7F2-70E2-4E77-BD3E-7653132C1B43}" name="備考" headerRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{18839E38-9061-4AD1-811B-865F19B59F0B}" name="項目番号" headerRowDxfId="62" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{135C2B15-ED71-4E38-AC07-35B43A5EABC7}" name="大項目" headerRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{F7652A53-A1B8-4A73-A6DF-322324A8F3D0}" name="列3" headerRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{5FF2E917-E280-4BAA-A6AB-EFDD05C109D3}" name="確認内容" headerRowDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{B778511E-299A-4E60-AAD9-F9994C35D0DF}" name="操作手順" headerRowDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{742FD30F-BC09-4C1E-B0E9-702A84695AF4}" name="期待値" headerRowDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{39FE9F83-CBC2-4CB1-8917-69FAAEB1343D}" name="実施日" headerRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{772E27F4-AB2B-4CE7-AA27-18EEF520B561}" name="実施結果" headerRowDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{E65CA7F2-70E2-4E77-BD3E-7653132C1B43}" name="備考" headerRowDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4335,32 +4393,32 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{95B460F6-66D0-40B5-B59F-90A64DAB70DB}" name="テーブル2" displayName="テーブル2" ref="A7:I19" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B2D60ED4-31DE-4CF9-B4A1-6747CE8C0BDE}" name="項目番号" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{16B67633-2475-4964-BDDD-9DAE507D9C41}" name="大項目" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{7C3C1509-0E77-49DB-9380-4F40606465D3}" name="列3" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{1DB41261-6B79-4D58-B31B-59DD57DCF77F}" name="確認内容" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{0F7FC467-157F-4AFF-A895-9D3F26F112C2}" name="操作手順" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{3F746E92-58E9-4FB3-99A0-CBE5D59DEFF4}" name="期待値" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{51992A72-2B95-4E19-961A-F86CD2D68913}" name="実施日" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{6411BC2D-F166-4261-B0BD-7CCEB183915A}" name="実施結果" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{E56F0432-5CBB-4167-B5E0-85086DB92B00}" name="備考" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{B2D60ED4-31DE-4CF9-B4A1-6747CE8C0BDE}" name="項目番号" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{16B67633-2475-4964-BDDD-9DAE507D9C41}" name="大項目" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{7C3C1509-0E77-49DB-9380-4F40606465D3}" name="列3" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{1DB41261-6B79-4D58-B31B-59DD57DCF77F}" name="確認内容" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{0F7FC467-157F-4AFF-A895-9D3F26F112C2}" name="操作手順" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{3F746E92-58E9-4FB3-99A0-CBE5D59DEFF4}" name="期待値" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{51992A72-2B95-4E19-961A-F86CD2D68913}" name="実施日" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{6411BC2D-F166-4261-B0BD-7CCEB183915A}" name="実施結果" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{E56F0432-5CBB-4167-B5E0-85086DB92B00}" name="備考" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{67255566-219C-424C-B08B-11394A6AF2AB}" name="テーブル3" displayName="テーブル3" ref="A20:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{67255566-219C-424C-B08B-11394A6AF2AB}" name="テーブル3" displayName="テーブル3" ref="A20:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3DF33B28-932C-47AA-8AB3-3A610B674E71}" name="項目番号" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{DE85B673-7FA6-4CB6-A8A6-370172B534B3}" name="大項目" headerRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{21F833E9-4685-410F-97B1-CD68197035A5}" name="列3" headerRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{64B9609B-0827-4F41-88FC-7486AD270920}" name="確認内容" headerRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{0053A659-DE0C-4D04-A50E-1B58C5C1BE23}" name="操作手順" headerRowDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{16E4F25D-8DF0-433F-8C53-792401504AD5}" name="期待値" headerRowDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{34FC7B22-F20D-45D6-A6C5-48365761D581}" name="実施日" headerRowDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{D5A6D5EB-7A8F-4848-BA89-907C24EF1566}" name="実施結果" headerRowDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{A72AAB6B-6FA3-4A2E-B7C1-549E3A5E6673}" name="備考" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{3DF33B28-932C-47AA-8AB3-3A610B674E71}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DE85B673-7FA6-4CB6-A8A6-370172B534B3}" name="大項目" headerRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{21F833E9-4685-410F-97B1-CD68197035A5}" name="列3" headerRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{64B9609B-0827-4F41-88FC-7486AD270920}" name="確認内容" headerRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{0053A659-DE0C-4D04-A50E-1B58C5C1BE23}" name="操作手順" headerRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{16E4F25D-8DF0-433F-8C53-792401504AD5}" name="期待値" headerRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{34FC7B22-F20D-45D6-A6C5-48365761D581}" name="実施日" headerRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{D5A6D5EB-7A8F-4848-BA89-907C24EF1566}" name="実施結果" headerRowDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{A72AAB6B-6FA3-4A2E-B7C1-549E3A5E6673}" name="備考" headerRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4369,32 +4427,32 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{62A85DD4-83E1-43A0-A6F3-58760AE481A7}" name="テーブル2231" displayName="テーブル2231" ref="A7:I18" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CB2FC787-D0CC-4F5E-8C68-44CF73642933}" name="項目番号" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DEAB7197-8257-455B-AE27-BB668CE3D485}" name="大項目" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{3B57029A-942E-47C2-B350-3A3D3D2E17B7}" name="列3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4B169942-3687-4A50-8BB9-835C866DDDED}" name="確認内容" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{8164BE45-57C1-4F57-B008-993C11A582A4}" name="操作手順" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{729428EA-867C-4B0A-B5B7-7B3B70DFF27E}" name="期待値" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{A45D7C68-A65B-4360-87B6-C3241D24CCE9}" name="実施日" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{48428315-1ECF-4751-A53D-C0AB1B83D27C}" name="実施結果" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CDA51974-B68C-47F9-9F14-1F71DAEB7CF9}" name="備考" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{CB2FC787-D0CC-4F5E-8C68-44CF73642933}" name="項目番号" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{DEAB7197-8257-455B-AE27-BB668CE3D485}" name="大項目" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{3B57029A-942E-47C2-B350-3A3D3D2E17B7}" name="列3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{4B169942-3687-4A50-8BB9-835C866DDDED}" name="確認内容" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{8164BE45-57C1-4F57-B008-993C11A582A4}" name="操作手順" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{729428EA-867C-4B0A-B5B7-7B3B70DFF27E}" name="期待値" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{A45D7C68-A65B-4360-87B6-C3241D24CCE9}" name="実施日" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{48428315-1ECF-4751-A53D-C0AB1B83D27C}" name="実施結果" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{CDA51974-B68C-47F9-9F14-1F71DAEB7CF9}" name="備考" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8E19A9B6-6CC5-445B-8CA5-D942B7179211}" name="テーブル3632" displayName="テーブル3632" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8E19A9B6-6CC5-445B-8CA5-D942B7179211}" name="テーブル3632" displayName="テーブル3632" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{173EEC15-FD26-4F5C-B3B2-EFD669E9FED4}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CA23A4FC-F778-4AD6-90FA-D3D1391BB6B3}" name="大項目" headerRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{042E3A64-7C55-4140-8AFB-0DCE645A0D4D}" name="列3" headerRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00FF7986-E9AC-4B80-A4DE-159772B9EC56}" name="確認内容" headerRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{74A925C0-D9FE-4DDC-982B-21AC79F47DED}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9D8A9F8A-C35C-4FAB-B2F9-F337AF64BC5A}" name="期待値" headerRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{39C6CE7A-798C-45E6-9B0E-B233B3670A29}" name="実施日" headerRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D70D1FDF-198A-4B17-9B41-C703925D94A9}" name="実施結果" headerRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E6AE8B35-6675-4811-B8D4-25C98430D838}" name="備考" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{173EEC15-FD26-4F5C-B3B2-EFD669E9FED4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{CA23A4FC-F778-4AD6-90FA-D3D1391BB6B3}" name="大項目" headerRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{042E3A64-7C55-4140-8AFB-0DCE645A0D4D}" name="列3" headerRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00FF7986-E9AC-4B80-A4DE-159772B9EC56}" name="確認内容" headerRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{74A925C0-D9FE-4DDC-982B-21AC79F47DED}" name="操作手順" headerRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{9D8A9F8A-C35C-4FAB-B2F9-F337AF64BC5A}" name="期待値" headerRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{39C6CE7A-798C-45E6-9B0E-B233B3670A29}" name="実施日" headerRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{D70D1FDF-198A-4B17-9B41-C703925D94A9}" name="実施結果" headerRowDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{E6AE8B35-6675-4811-B8D4-25C98430D838}" name="備考" headerRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4719,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBB779-F137-45A5-959C-3F339C318718}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4731,13 +4789,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4748,7 +4806,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4757,7 +4815,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4766,12 +4824,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4825,8 +4883,8 @@
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+      <c r="G8" s="4">
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4855,16 +4913,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="3">
-        <v>46002</v>
+        <v>115</v>
+      </c>
+      <c r="G10" s="4">
+        <v>46027</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -4885,7 +4943,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4893,16 +4951,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46002</v>
+        <v>172</v>
+      </c>
+      <c r="G12" s="4">
+        <v>46027</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -4923,7 +4981,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4931,16 +4989,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>173</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4948,7 +5006,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4969,16 +5027,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="3">
-        <v>46002</v>
+        <v>116</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -4999,7 +5057,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5007,16 +5065,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46002</v>
+        <v>117</v>
+      </c>
+      <c r="G18" s="4">
+        <v>46027</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -5024,7 +5082,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5045,7 +5103,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>93</v>
@@ -5053,8 +5111,8 @@
       <c r="F20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="3">
-        <v>46002</v>
+      <c r="G20" s="4">
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -5067,7 +5125,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5083,16 +5141,16 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46002</v>
+        <v>122</v>
+      </c>
+      <c r="G22" s="4">
+        <v>46027</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -5119,16 +5177,16 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="3">
-        <v>46002</v>
+        <v>123</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46027</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -5141,7 +5199,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5165,8 +5223,8 @@
       <c r="F26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="3">
-        <v>46002</v>
+      <c r="G26" s="4">
+        <v>46027</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -5196,13 +5254,13 @@
         <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="3">
-        <v>46002</v>
+      <c r="G28" s="4">
+        <v>46027</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -5237,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA482E-98F4-4044-B81C-FB09521B2BDF}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5249,13 +5307,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5266,7 +5324,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -5275,7 +5333,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5284,12 +5342,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5335,16 +5393,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+      <c r="G8" s="4">
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5357,7 +5415,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5376,13 +5434,13 @@
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="3">
-        <v>46002</v>
+      <c r="G10" s="4">
+        <v>46027</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -5395,7 +5453,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5403,7 +5461,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5411,16 +5469,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46002</v>
+        <v>170</v>
+      </c>
+      <c r="G12" s="4">
+        <v>46027</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -5428,12 +5486,12 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5441,7 +5499,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5449,16 +5507,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>171</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5466,12 +5524,12 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5490,13 +5548,13 @@
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="3">
-        <v>46002</v>
+      <c r="G16" s="4">
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5509,7 +5567,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5517,37 +5575,37 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>136</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46002</v>
+        <v>134</v>
+      </c>
+      <c r="G18" s="4">
+        <v>46027</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5563,16 +5621,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="3">
-        <v>46002</v>
+        <v>130</v>
+      </c>
+      <c r="G20" s="4">
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -5585,7 +5643,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5604,13 +5662,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="3">
-        <v>46002</v>
+      <c r="G22" s="4">
+        <v>46027</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -5623,7 +5681,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -5642,13 +5700,13 @@
         <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="3">
-        <v>46002</v>
+      <c r="G24" s="4">
+        <v>46027</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -5684,7 +5742,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5695,13 +5753,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5712,7 +5770,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -5721,7 +5779,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5730,12 +5788,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5784,13 +5842,13 @@
         <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="3">
-        <v>46002</v>
+      <c r="G11" s="4">
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5803,7 +5861,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5811,7 +5869,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5819,16 +5877,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="3">
-        <v>46002</v>
+        <v>176</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46027</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -5836,12 +5894,12 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5849,7 +5907,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5857,16 +5915,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="3">
-        <v>46002</v>
+        <v>177</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46027</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -5874,12 +5932,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5898,13 +5956,13 @@
         <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="3">
-        <v>46002</v>
+      <c r="G17" s="4">
+        <v>46027</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5917,7 +5975,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5925,37 +5983,37 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>156</v>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="3">
-        <v>46002</v>
+        <v>143</v>
+      </c>
+      <c r="G19" s="4">
+        <v>46027</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5979,8 +6037,8 @@
       <c r="F21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="3">
-        <v>46002</v>
+      <c r="G21" s="4">
+        <v>46027</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>73</v>
@@ -6014,8 +6072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A7E40C-BD19-4992-B65B-1DB3E068FFC6}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6026,24 +6084,24 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6052,7 +6110,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6061,17 +6119,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6112,16 +6170,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+        <v>148</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -6134,7 +6192,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6150,16 +6208,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="3">
-        <v>46002</v>
+        <v>115</v>
+      </c>
+      <c r="G10" s="4">
+        <v>46027</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -6172,7 +6230,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6180,7 +6238,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6188,16 +6246,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46002</v>
+        <v>172</v>
+      </c>
+      <c r="G12" s="4">
+        <v>46027</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -6205,12 +6263,12 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6218,7 +6276,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6226,16 +6284,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>173</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -6243,12 +6301,12 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6264,16 +6322,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="3">
-        <v>46002</v>
+        <v>116</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -6286,7 +6344,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6294,7 +6352,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6302,16 +6360,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46002</v>
+        <v>117</v>
+      </c>
+      <c r="G18" s="4">
+        <v>46027</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -6324,7 +6382,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6343,13 +6401,13 @@
         <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="3">
-        <v>46002</v>
+      <c r="G20" s="4">
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -6384,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59CAD9D-1D68-401D-BC6E-02BE1D7BBA89}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6396,24 +6454,24 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6422,7 +6480,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6431,17 +6489,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6482,16 +6540,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -6504,7 +6562,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6517,7 +6575,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -6533,16 +6591,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -6555,7 +6613,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6568,7 +6626,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6584,16 +6642,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -6620,16 +6678,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G16" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -6642,7 +6700,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6655,7 +6713,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6668,7 +6726,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6687,13 +6745,13 @@
         <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -6746,7 +6804,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6757,7 +6815,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6766,7 +6824,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6775,7 +6833,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -7649,7 +7707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7660,7 +7718,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7669,7 +7727,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7678,7 +7736,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
